--- a/Results/PaperComp.xlsx
+++ b/Results/PaperComp.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elx22yz\Desktop\Project\Chessboard\Matlab\PaperFigures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30A2455C-6B5D-4F02-90BD-7F444EC1A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28B314-DFF0-44C4-A064-34EFB347642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="25">
   <si>
     <t>SNR 0dB</t>
   </si>
@@ -104,6 +103,12 @@
   </si>
   <si>
     <t>[4] Hie Method</t>
+  </si>
+  <si>
+    <t>[7] Feature Image</t>
+  </si>
+  <si>
+    <t>[6] IC-AMCNet DO 0.7</t>
   </si>
 </sst>
 </file>
@@ -935,6 +940,184 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[6] IC-AMCNet DO 0.7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SNR 0dB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SNR 3dB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SNR 5dB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SNR 7dB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SNR 10dB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SNR15dB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SNR 20dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$35:$K$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37BE-466B-BF81-69E10D545A2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[7] Feature Image</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SNR 0dB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SNR 3dB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SNR 5dB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SNR 7dB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SNR 10dB</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SNR15dB</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>SNR 20dB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$36:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37BE-466B-BF81-69E10D545A2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1023,6 +1206,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1114,8 +1322,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.74790477580953363"/>
           <c:y val="0.30595489613385113"/>
-          <c:w val="0.20928105840984332"/>
-          <c:h val="0.40792462925605372"/>
+          <c:w val="0.23643926987759009"/>
+          <c:h val="0.52447452332921196"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1787,15 +1995,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>121444</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>958453</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>934641</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2088,8 +2296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D12:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,6 +2716,46 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2">
+        <v>75</v>
+      </c>
+      <c r="F35" s="2">
+        <v>80</v>
+      </c>
+      <c r="G35" s="2">
+        <v>82</v>
+      </c>
+      <c r="H35" s="2">
+        <v>82</v>
+      </c>
+      <c r="I35" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" s="6">
+        <v>90.8</v>
+      </c>
+      <c r="G36" s="2">
+        <v>100</v>
+      </c>
+      <c r="H36" s="2">
+        <v>100</v>
+      </c>
+      <c r="I36" s="2">
+        <v>100</v>
+      </c>
+    </row>
     <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" s="3"/>
       <c r="E37" s="1"/>
